--- a/2-综合笔记/1-交易理论/8-找房分析表.xlsx
+++ b/2-综合笔记/1-交易理论/8-找房分析表.xlsx
@@ -1,197 +1,483 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10808"/>
-  <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/huangning/Library/Mobile Documents/com~apple~CloudDocs/CTA策略/CTA/2-综合笔记/1-交易理论/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{44C87392-93CD-E04C-90A0-DB364EB6B292}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="3200" yWindow="1320" windowWidth="28240" windowHeight="17440" xr2:uid="{B99E004C-F223-FE44-8A14-759D4E635A36}"/>
+    <workbookView windowWidth="22357" windowHeight="10680"/>
   </bookViews>
   <sheets>
     <sheet name="美丽新乡村" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">美丽新乡村!$A$1:$V$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">美丽新乡村!$A$1:$W$3</definedName>
   </definedNames>
-  <calcPr calcId="181029"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="31">
   <si>
     <t>序号</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>编号</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>挂出时间</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>城区</t>
+  </si>
+  <si>
+    <t>乡镇</t>
+  </si>
+  <si>
+    <t>村</t>
+  </si>
+  <si>
+    <t>房间大小</t>
+  </si>
+  <si>
+    <t>房间格局</t>
   </si>
   <si>
     <t>价格</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>从东四出发距离</t>
   </si>
   <si>
     <t>从东四出发驾车时间</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>能否1年租</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>网络条件</t>
+  </si>
+  <si>
+    <t>有阳光房</t>
+  </si>
+  <si>
+    <t>取暖</t>
+  </si>
+  <si>
+    <t>有独立院子</t>
+  </si>
+  <si>
+    <t>房间光线明亮</t>
+  </si>
+  <si>
+    <t>有停车地点</t>
+  </si>
+  <si>
+    <t>周围最近购物地点</t>
   </si>
   <si>
     <t>周围最近购物驾车时间</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>周围最近购物地点</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>周边环境如何</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>是否有景点</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>从东四出发距离</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>联系电话</t>
   </si>
   <si>
     <t>延庆</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>城区</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>乡镇</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>村</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>井庄镇</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>房间大小</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>房间格局</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>3室1厅1厨4卫</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>待定</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>有阳光房</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>是</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>有独立院子</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>房间光线明亮</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>有停车地点</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>取暖</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>大庄科乡</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>莲花山</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>2室</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>联系电话</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="5">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="0_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="2">
+  <fonts count="21">
     <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="等线"/>
-      <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9"/>
-      <name val="等线"/>
-      <family val="2"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -201,22 +487,264 @@
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="7" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="20" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -234,17 +762,61 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -293,7 +865,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -326,26 +898,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -378,23 +933,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -536,39 +1074,33 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
-  <a:extLst>
-    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
-    </a:ext>
-  </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C1BA5F23-5426-864A-92D8-C8FA286D558C}">
-  <dimension ref="A1:V22"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:W22"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+      <selection activeCell="U8" sqref="U8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="7.83203125" customWidth="1"/>
-    <col min="2" max="2" width="19.33203125" customWidth="1"/>
+    <col min="1" max="1" width="7.8359375" customWidth="1"/>
+    <col min="2" max="2" width="19.3359375" customWidth="1"/>
     <col min="8" max="8" width="14.6640625" customWidth="1"/>
-    <col min="10" max="10" width="15.83203125" customWidth="1"/>
-    <col min="11" max="11" width="20.83203125" bestFit="1" customWidth="1"/>
-    <col min="13" max="15" width="12.83203125" customWidth="1"/>
-    <col min="16" max="16" width="14.1640625" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.1640625" customWidth="1"/>
-    <col min="18" max="19" width="23.1640625" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.1640625" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="20" customWidth="1"/>
+    <col min="10" max="10" width="15.8359375" customWidth="1"/>
+    <col min="11" max="11" width="20.8359375" customWidth="1"/>
+    <col min="14" max="16" width="12.8359375" customWidth="1"/>
+    <col min="17" max="18" width="14.1640625" customWidth="1"/>
+    <col min="19" max="20" width="23.1640625" customWidth="1"/>
+    <col min="21" max="21" width="14.1640625" customWidth="1"/>
+    <col min="23" max="23" width="20" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" ht="17">
+    <row r="1" spans="1:23">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -579,85 +1111,88 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="P1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="R1" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="I1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="M1" s="1" t="s">
+      <c r="S1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="U1" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="N1" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="O1" s="1" t="s">
+      <c r="V1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="W1" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="P1" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="Q1" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="R1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="S1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="T1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="U1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="V1" s="1" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="2" spans="1:22" ht="17">
+    </row>
+    <row r="2" spans="1:23">
       <c r="A2" s="1">
         <v>1</v>
       </c>
       <c r="B2" s="2">
-        <v>2.02107301749339E+16</v>
+        <v>2.02107301749339e+16</v>
       </c>
       <c r="C2" s="3">
         <v>44425</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>11</v>
+        <v>23</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="F2" s="1"/>
       <c r="G2" s="1">
         <v>260</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="I2" s="1">
         <v>6.2</v>
@@ -669,57 +1204,58 @@
         <v>96</v>
       </c>
       <c r="L2" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="M2" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="N2" s="1"/>
-      <c r="O2" s="1" t="s">
-        <v>21</v>
-      </c>
+        <v>26</v>
+      </c>
+      <c r="M2" s="1"/>
+      <c r="N2" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="O2" s="1"/>
       <c r="P2" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="Q2" s="1"/>
+        <v>27</v>
+      </c>
+      <c r="Q2" s="1" t="s">
+        <v>27</v>
+      </c>
       <c r="R2" s="1"/>
       <c r="S2" s="1"/>
       <c r="T2" s="1"/>
       <c r="U2" s="1"/>
-      <c r="V2" s="1">
+      <c r="V2" s="1"/>
+      <c r="W2" s="1">
         <v>13701108529</v>
       </c>
     </row>
-    <row r="3" spans="1:22" ht="17">
+    <row r="3" spans="1:23">
       <c r="A3" s="1">
         <v>2</v>
       </c>
       <c r="B3" s="2">
-        <v>2.02103011552415E+16</v>
+        <v>2.02103011552415e+16</v>
       </c>
       <c r="C3" s="3">
         <v>44197</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>11</v>
+        <v>23</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="G3" s="1">
         <v>220.8</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="I3" s="1">
         <v>7</v>
       </c>
       <c r="J3" s="1">
-        <v>75.599999999999994</v>
+        <v>75.6</v>
       </c>
       <c r="K3" s="1">
         <v>114</v>
@@ -735,8 +1271,9 @@
       <c r="T3" s="1"/>
       <c r="U3" s="1"/>
       <c r="V3" s="1"/>
-    </row>
-    <row r="4" spans="1:22">
+      <c r="W3" s="1"/>
+    </row>
+    <row r="4" spans="1:23">
       <c r="A4" s="1"/>
       <c r="B4" s="2"/>
       <c r="C4" s="1"/>
@@ -759,8 +1296,9 @@
       <c r="T4" s="1"/>
       <c r="U4" s="1"/>
       <c r="V4" s="1"/>
-    </row>
-    <row r="5" spans="1:22">
+      <c r="W4" s="1"/>
+    </row>
+    <row r="5" spans="1:23">
       <c r="A5" s="1"/>
       <c r="B5" s="2"/>
       <c r="C5" s="1"/>
@@ -783,8 +1321,9 @@
       <c r="T5" s="1"/>
       <c r="U5" s="1"/>
       <c r="V5" s="1"/>
-    </row>
-    <row r="6" spans="1:22">
+      <c r="W5" s="1"/>
+    </row>
+    <row r="6" spans="1:23">
       <c r="A6" s="1"/>
       <c r="B6" s="2"/>
       <c r="C6" s="1"/>
@@ -807,8 +1346,9 @@
       <c r="T6" s="1"/>
       <c r="U6" s="1"/>
       <c r="V6" s="1"/>
-    </row>
-    <row r="7" spans="1:22">
+      <c r="W6" s="1"/>
+    </row>
+    <row r="7" spans="1:23">
       <c r="A7" s="1"/>
       <c r="B7" s="2"/>
       <c r="C7" s="1"/>
@@ -831,8 +1371,9 @@
       <c r="T7" s="1"/>
       <c r="U7" s="1"/>
       <c r="V7" s="1"/>
-    </row>
-    <row r="8" spans="1:22">
+      <c r="W7" s="1"/>
+    </row>
+    <row r="8" spans="1:23">
       <c r="A8" s="1"/>
       <c r="B8" s="2"/>
       <c r="C8" s="1"/>
@@ -855,8 +1396,9 @@
       <c r="T8" s="1"/>
       <c r="U8" s="1"/>
       <c r="V8" s="1"/>
-    </row>
-    <row r="9" spans="1:22">
+      <c r="W8" s="1"/>
+    </row>
+    <row r="9" spans="1:23">
       <c r="A9" s="1"/>
       <c r="B9" s="2"/>
       <c r="C9" s="1"/>
@@ -879,8 +1421,9 @@
       <c r="T9" s="1"/>
       <c r="U9" s="1"/>
       <c r="V9" s="1"/>
-    </row>
-    <row r="10" spans="1:22">
+      <c r="W9" s="1"/>
+    </row>
+    <row r="10" spans="1:23">
       <c r="A10" s="1"/>
       <c r="B10" s="2"/>
       <c r="C10" s="1"/>
@@ -903,8 +1446,9 @@
       <c r="T10" s="1"/>
       <c r="U10" s="1"/>
       <c r="V10" s="1"/>
-    </row>
-    <row r="11" spans="1:22">
+      <c r="W10" s="1"/>
+    </row>
+    <row r="11" spans="1:23">
       <c r="A11" s="1"/>
       <c r="B11" s="2"/>
       <c r="C11" s="1"/>
@@ -927,8 +1471,9 @@
       <c r="T11" s="1"/>
       <c r="U11" s="1"/>
       <c r="V11" s="1"/>
-    </row>
-    <row r="12" spans="1:22">
+      <c r="W11" s="1"/>
+    </row>
+    <row r="12" spans="1:23">
       <c r="A12" s="1"/>
       <c r="B12" s="2"/>
       <c r="C12" s="1"/>
@@ -951,8 +1496,9 @@
       <c r="T12" s="1"/>
       <c r="U12" s="1"/>
       <c r="V12" s="1"/>
-    </row>
-    <row r="13" spans="1:22">
+      <c r="W12" s="1"/>
+    </row>
+    <row r="13" spans="1:23">
       <c r="A13" s="1"/>
       <c r="B13" s="2"/>
       <c r="C13" s="1"/>
@@ -975,8 +1521,9 @@
       <c r="T13" s="1"/>
       <c r="U13" s="1"/>
       <c r="V13" s="1"/>
-    </row>
-    <row r="14" spans="1:22">
+      <c r="W13" s="1"/>
+    </row>
+    <row r="14" spans="1:23">
       <c r="A14" s="1"/>
       <c r="B14" s="2"/>
       <c r="C14" s="1"/>
@@ -999,8 +1546,9 @@
       <c r="T14" s="1"/>
       <c r="U14" s="1"/>
       <c r="V14" s="1"/>
-    </row>
-    <row r="15" spans="1:22">
+      <c r="W14" s="1"/>
+    </row>
+    <row r="15" spans="1:23">
       <c r="A15" s="1"/>
       <c r="B15" s="2"/>
       <c r="C15" s="1"/>
@@ -1023,8 +1571,9 @@
       <c r="T15" s="1"/>
       <c r="U15" s="1"/>
       <c r="V15" s="1"/>
-    </row>
-    <row r="16" spans="1:22">
+      <c r="W15" s="1"/>
+    </row>
+    <row r="16" spans="1:23">
       <c r="A16" s="1"/>
       <c r="B16" s="2"/>
       <c r="C16" s="1"/>
@@ -1047,8 +1596,9 @@
       <c r="T16" s="1"/>
       <c r="U16" s="1"/>
       <c r="V16" s="1"/>
-    </row>
-    <row r="17" spans="1:22">
+      <c r="W16" s="1"/>
+    </row>
+    <row r="17" spans="1:23">
       <c r="A17" s="1"/>
       <c r="B17" s="2"/>
       <c r="C17" s="1"/>
@@ -1071,8 +1621,9 @@
       <c r="T17" s="1"/>
       <c r="U17" s="1"/>
       <c r="V17" s="1"/>
-    </row>
-    <row r="18" spans="1:22">
+      <c r="W17" s="1"/>
+    </row>
+    <row r="18" spans="1:23">
       <c r="A18" s="1"/>
       <c r="B18" s="2"/>
       <c r="C18" s="1"/>
@@ -1095,8 +1646,9 @@
       <c r="T18" s="1"/>
       <c r="U18" s="1"/>
       <c r="V18" s="1"/>
-    </row>
-    <row r="19" spans="1:22">
+      <c r="W18" s="1"/>
+    </row>
+    <row r="19" spans="1:23">
       <c r="A19" s="1"/>
       <c r="B19" s="2"/>
       <c r="C19" s="1"/>
@@ -1119,8 +1671,9 @@
       <c r="T19" s="1"/>
       <c r="U19" s="1"/>
       <c r="V19" s="1"/>
-    </row>
-    <row r="20" spans="1:22">
+      <c r="W19" s="1"/>
+    </row>
+    <row r="20" spans="1:23">
       <c r="A20" s="1"/>
       <c r="B20" s="2"/>
       <c r="C20" s="1"/>
@@ -1143,8 +1696,9 @@
       <c r="T20" s="1"/>
       <c r="U20" s="1"/>
       <c r="V20" s="1"/>
-    </row>
-    <row r="21" spans="1:22">
+      <c r="W20" s="1"/>
+    </row>
+    <row r="21" spans="1:23">
       <c r="A21" s="1"/>
       <c r="B21" s="2"/>
       <c r="C21" s="1"/>
@@ -1167,8 +1721,9 @@
       <c r="T21" s="1"/>
       <c r="U21" s="1"/>
       <c r="V21" s="1"/>
-    </row>
-    <row r="22" spans="1:22">
+      <c r="W21" s="1"/>
+    </row>
+    <row r="22" spans="1:23">
       <c r="A22" s="1"/>
       <c r="B22" s="2"/>
       <c r="C22" s="1"/>
@@ -1191,11 +1746,14 @@
       <c r="T22" s="1"/>
       <c r="U22" s="1"/>
       <c r="V22" s="1"/>
+      <c r="W22" s="1"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:V1" xr:uid="{C1BA5F23-5426-864A-92D8-C8FA286D558C}"/>
-  <phoneticPr fontId="1" type="noConversion"/>
+  <autoFilter ref="A1:W3">
+    <extLst/>
+  </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>